--- a/medicine/Sexualité et sexologie/Fatale_(film)/Fatale_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Fatale_(film)/Fatale_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fatale (Damage) est un film franco-britannique de Louis Malle, sorti en 1992, adapté du roman éponyme de Josephine Hart (en).
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un homme politique, Stephen Fleming, marié et père de deux enfants (Martyn et Sally), est passionnément amoureux d'Anna, rencontrée dans une soirée mondaine, qui est la petite amie de son fils Martyn. Tout au long de l'histoire, Stephen devenu fou amoureux quittera souvent son bureau pour retrouver Anna, ils se verront en cachette, feront très souvent l'amour, jusqu'au jour où Martyn venant voir Anna, découvrira la vérité en les surprenant au lit.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Fatale
 Titre original : Damage
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jeremy Irons (V.F : Bernard Tiphaine) : Dr. Stephen Fleming
 Juliette Binoche (V.F : Juliette Binoche) : Anna Barton
@@ -620,7 +638,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">46e cérémonie des British Academy Film Awards : Gagnant du British Academy Film Award de la meilleure actrice dans un second rôle : Miranda Richardson
 50e cérémonie des Golden Globes : Nomimation pour le Golden Globe de la meilleure actrice dans un second rôle : Miranda Richardson
